--- a/Project Inception/Time Sheet.xlsx
+++ b/Project Inception/Time Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Michael</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Risk Register Organisational Risks</t>
   </si>
   <si>
+    <t>Total Time</t>
+  </si>
+  <si>
     <t>Project Plan</t>
   </si>
   <si>
@@ -55,31 +58,61 @@
     <t>Roles and responsibilities</t>
   </si>
   <si>
-    <t>Micheal</t>
-  </si>
-  <si>
     <t>Analysis of Alternatives, Proof reading and editing of PMP and Analysis of alternatives</t>
   </si>
   <si>
     <t>Risk Register,  Coding interface testing</t>
+  </si>
+  <si>
+    <t>Finalizing Risk Register and review on project plan</t>
+  </si>
+  <si>
+    <t>Studying the API</t>
+  </si>
+  <si>
+    <t>Learning the API</t>
+  </si>
+  <si>
+    <t>Clean up the code</t>
+  </si>
+  <si>
+    <t>Terminal menu</t>
+  </si>
+  <si>
+    <t>Setting backlogs</t>
+  </si>
+  <si>
+    <t>Studying the API (v2 and v3)</t>
+  </si>
+  <si>
+    <t>Playing around with the API (and incidentally creating initial code for downloading and plotting revisions)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +149,20 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -129,6 +174,36 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -137,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -165,6 +240,9 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -177,6 +255,10 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -188,6 +270,60 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -262,138 +398,398 @@
       <c r="D4" s="8">
         <v>43331.0</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10">
         <v>0.6</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>43334.0</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>sumif(A4:A43,"*Michael*",C4:C43)</f>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10">
         <v>2.0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>43336.0</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>sumif(A4:A43,"*Josh*",C4:C43)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12">
         <v>2.0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>43333.0</v>
       </c>
+      <c r="F7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="15">
+        <f>sumif(A4:A43,"*Keith*",C4:C43)</f>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12">
         <v>0.5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>43335.0</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f>sumif(A4:A43,"*Simon*",C4:C43)</f>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="16">
         <v>3.5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="17">
         <v>43336.0</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15">
+        <f>sumif(A4:A43,"*Glyn*",C4:C43)</f>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="18">
         <v>3.0</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="19">
         <v>43335.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43336.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>43344.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43345.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="20">
+        <v>43348.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="21">
+        <v>43348.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="25">
+        <v>43345.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="29">
+        <v>43348.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="D18" s="33">
+        <v>43344.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="D19" s="37">
+        <v>43345.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Project Inception/Time Sheet.xlsx
+++ b/Project Inception/Time Sheet.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\fit2101\my-awesome-project\Project Inception\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A568DB-8885-4019-B490-78F28F9ED6B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Michael</t>
   </si>
@@ -86,38 +95,62 @@
   </si>
   <si>
     <t>Playing around with the API (and incidentally creating initial code for downloading and plotting revisions)</t>
+  </si>
+  <si>
+    <t>Testing Graphs</t>
+  </si>
+  <si>
+    <t>More Testing</t>
+  </si>
+  <si>
+    <t>Reading API and adding to Google Docs</t>
+  </si>
+  <si>
+    <t>Looking over unit tests and cheecking functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -161,33 +194,26 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="9">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -196,165 +222,539 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="7" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+  <cellXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.86"/>
-    <col customWidth="1" min="2" max="2" width="74.86"/>
-    <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="4" max="4" width="21.43"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="74.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -371,7 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="1.5" customHeight="1">
+    <row r="3" spans="1:7" ht="1.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -385,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="1.5" customHeight="1">
+    <row r="4" spans="1:7" ht="1.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -396,13 +796,13 @@
         <v>0.8</v>
       </c>
       <c r="D4" s="8">
-        <v>43331.0</v>
+        <v>43331</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -413,17 +813,17 @@
         <v>0.6</v>
       </c>
       <c r="D5" s="11">
-        <v>43334.0</v>
+        <v>43334</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G5">
-        <f>sumif(A4:A43,"*Michael*",C4:C43)</f>
+        <f>SUMIF(A4:A43,"*Michael*",C4:C43)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -431,20 +831,20 @@
         <v>12</v>
       </c>
       <c r="C6" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11">
-        <v>43336.0</v>
+        <v>43336</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G6">
-        <f>sumif(A4:A43,"*Josh*",C4:C43)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
+        <f>SUMIF(A4:A43,"*Josh*",C4:C43)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
@@ -452,20 +852,20 @@
         <v>13</v>
       </c>
       <c r="C7" s="12">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="13">
-        <v>43333.0</v>
+        <v>43333</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="15">
-        <f>sumif(A4:A43,"*Keith*",C4:C43)</f>
+        <f>SUMIF(A4:A43,"*Keith*",C4:C43)</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
@@ -476,17 +876,17 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="13">
-        <v>43335.0</v>
+        <v>43335</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G8">
-        <f>sumif(A4:A43,"*Simon*",C4:C43)</f>
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="9">
+        <f>SUMIF(A4:A43,"*Simon*",C4:C43)</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
@@ -497,17 +897,17 @@
         <v>3.5</v>
       </c>
       <c r="D9" s="17">
-        <v>43336.0</v>
+        <v>43336</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="15">
-        <f>sumif(A4:A43,"*Glyn*",C4:C43)</f>
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="10">
+        <f>SUMIF(A4:A43,"*Glyn*",C4:C43)</f>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
@@ -515,13 +915,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="18">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="19">
-        <v>43335.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>43335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -532,10 +932,10 @@
         <v>1.5</v>
       </c>
       <c r="D11" s="8">
-        <v>43336.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>43336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
@@ -543,13 +943,13 @@
         <v>18</v>
       </c>
       <c r="C12" s="16">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="17">
-        <v>43344.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.2">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -557,13 +957,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="11">
-        <v>43345.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>43345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
@@ -571,13 +971,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="16">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="20">
-        <v>43348.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="18" t="s">
         <v>1</v>
       </c>
@@ -585,13 +985,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="21">
-        <v>43348.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.2">
       <c r="A16" s="22" t="s">
         <v>3</v>
       </c>
@@ -602,10 +1002,10 @@
         <v>1.5</v>
       </c>
       <c r="D16" s="25">
-        <v>43345.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>43345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.2">
       <c r="A17" s="26" t="s">
         <v>3</v>
       </c>
@@ -616,10 +1016,10 @@
         <v>0.8</v>
       </c>
       <c r="D17" s="29">
-        <v>43348.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.2">
       <c r="A18" s="30" t="s">
         <v>2</v>
       </c>
@@ -627,13 +1027,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="32">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="33">
-        <v>43344.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.8" thickBot="1">
       <c r="A19" s="34" t="s">
         <v>2</v>
       </c>
@@ -641,157 +1041,189 @@
         <v>24</v>
       </c>
       <c r="C19" s="36">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="37">
-        <v>43345.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-    </row>
-    <row r="24">
+        <v>43345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.8" thickBot="1">
+      <c r="A20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="41">
+        <v>3.5</v>
+      </c>
+      <c r="D20" s="42">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.8" thickBot="1">
+      <c r="A21" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="45">
+        <v>5</v>
+      </c>
+      <c r="D21" s="46">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.8" thickBot="1">
+      <c r="A22" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1</v>
+      </c>
+      <c r="D22" s="50">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.8" thickBot="1">
+      <c r="A23" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="50">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.2">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="13.2">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="13.2">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="13.2">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="13.2">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="13.2">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="13.2">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="13.2">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="13.2">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="13.2">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="13.2">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="13.2">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="13.2">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="13.2">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="13.2">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="13.2">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="13.2">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="13.2">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="13.2">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="13.2">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>